--- a/Documentation/DiccionarioDatos_BD1Proyecto1.xlsx
+++ b/Documentation/DiccionarioDatos_BD1Proyecto1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Renzo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB09520-46B0-45B0-8B15-0CF5F388EDBE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D71C0DC-1383-4FF3-8CA9-EC1F53A76B12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B3A605EA-20FC-4326-ABD3-33A9B62DE887}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="235">
   <si>
     <t>Data Dictionary</t>
   </si>
@@ -685,6 +685,60 @@
   </si>
   <si>
     <t>getstatusDescription</t>
+  </si>
+  <si>
+    <t>allItemsTotal</t>
+  </si>
+  <si>
+    <t>allLendedItemsTotal</t>
+  </si>
+  <si>
+    <t>allItems</t>
+  </si>
+  <si>
+    <t>allLendedItems</t>
+  </si>
+  <si>
+    <t>Consulta que devuelve la cantidad de items en la tabla Items</t>
+  </si>
+  <si>
+    <t>Consulta que devuelve la cantidad de items en la tabla de PersonLendItem</t>
+  </si>
+  <si>
+    <t>Consulta que devuelve todos los items en orden alfabetico, filtrable por nombre y apellido de un autor, y editorial</t>
+  </si>
+  <si>
+    <t>Consulta que devuelve todos los items prestados en orden alfabetico, filtrable por nombre y apellido de una persona, dias de prestamo, tolerancia y maximo de tolerancia</t>
+  </si>
+  <si>
+    <t>NotBorrowedTotal</t>
+  </si>
+  <si>
+    <t>NotBorrowed</t>
+  </si>
+  <si>
+    <t>TopMostBorrowed</t>
+  </si>
+  <si>
+    <t>MostBorrowedPerMonth</t>
+  </si>
+  <si>
+    <t>AgeOfPeopleLoan</t>
+  </si>
+  <si>
+    <t>Consulta que devuelve un cursor con todos los items que no se encuentran bajo ningun prestamo</t>
+  </si>
+  <si>
+    <t>Consulta que devuelve la cantidad de todos los items que no se encuentran bajo ningun prestamo</t>
+  </si>
+  <si>
+    <t>Consulta que devuelve la cantidad de N items que se encuentran prestados</t>
+  </si>
+  <si>
+    <t>Consulta que devuelve un cursor con todos los items prestados N veces durante N meses</t>
+  </si>
+  <si>
+    <t>Consulta que devuelve los items prestados en conjunto de la edad de las personas dividido en grupos de edad</t>
   </si>
 </sst>
 </file>
@@ -845,6 +899,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -870,9 +927,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1189,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571F615E-232C-4C36-930B-091476803809}">
-  <dimension ref="A1:G211"/>
+  <dimension ref="A1:G229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="J211" sqref="J211"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,14 +1260,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="17"/>
+      <c r="D1" s="8"/>
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
@@ -1221,15 +1275,15 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="7" t="s">
@@ -1238,11 +1292,11 @@
       <c r="G2" s="7"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="13"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="3"/>
       <c r="G3" s="2"/>
     </row>
@@ -3950,328 +4004,356 @@
       <c r="F211" s="3"/>
       <c r="G211" s="2"/>
     </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="B212" s="4"/>
+      <c r="C212" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D212" s="5"/>
+      <c r="E212" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F212" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G212" s="7"/>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" s="4"/>
+      <c r="B213" s="4"/>
+      <c r="C213" s="5"/>
+      <c r="D213" s="5"/>
+      <c r="E213" s="6"/>
+      <c r="F213" s="3"/>
+      <c r="G213" s="2"/>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B214" s="4"/>
+      <c r="C214" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D214" s="5"/>
+      <c r="E214" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F214" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G214" s="7"/>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" s="4"/>
+      <c r="B215" s="4"/>
+      <c r="C215" s="5"/>
+      <c r="D215" s="5"/>
+      <c r="E215" s="6"/>
+      <c r="F215" s="3"/>
+      <c r="G215" s="2"/>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B216" s="4"/>
+      <c r="C216" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D216" s="5"/>
+      <c r="E216" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F216" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G216" s="7"/>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" s="4"/>
+      <c r="B217" s="4"/>
+      <c r="C217" s="5"/>
+      <c r="D217" s="5"/>
+      <c r="E217" s="6"/>
+      <c r="F217" s="3"/>
+      <c r="G217" s="2"/>
+    </row>
+    <row r="218" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="B218" s="4"/>
+      <c r="C218" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D218" s="5"/>
+      <c r="E218" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F218" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="G218" s="7"/>
+    </row>
+    <row r="219" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="4"/>
+      <c r="B219" s="4"/>
+      <c r="C219" s="5"/>
+      <c r="D219" s="5"/>
+      <c r="E219" s="6"/>
+      <c r="F219" s="3"/>
+      <c r="G219" s="2"/>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="B220" s="4"/>
+      <c r="C220" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D220" s="5"/>
+      <c r="E220" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F220" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G220" s="7"/>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" s="4"/>
+      <c r="B221" s="4"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5"/>
+      <c r="E221" s="6"/>
+      <c r="F221" s="3"/>
+      <c r="G221" s="2"/>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="B222" s="4"/>
+      <c r="C222" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D222" s="5"/>
+      <c r="E222" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F222" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G222" s="7"/>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" s="4"/>
+      <c r="B223" s="4"/>
+      <c r="C223" s="5"/>
+      <c r="D223" s="5"/>
+      <c r="E223" s="6"/>
+      <c r="F223" s="3"/>
+      <c r="G223" s="2"/>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="B224" s="4"/>
+      <c r="C224" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D224" s="5"/>
+      <c r="E224" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F224" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G224" s="7"/>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" s="4"/>
+      <c r="B225" s="4"/>
+      <c r="C225" s="5"/>
+      <c r="D225" s="5"/>
+      <c r="E225" s="6"/>
+      <c r="F225" s="3"/>
+      <c r="G225" s="2"/>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="B226" s="4"/>
+      <c r="C226" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D226" s="5"/>
+      <c r="E226" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F226" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="G226" s="7"/>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" s="4"/>
+      <c r="B227" s="4"/>
+      <c r="C227" s="5"/>
+      <c r="D227" s="5"/>
+      <c r="E227" s="6"/>
+      <c r="F227" s="3"/>
+      <c r="G227" s="2"/>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="B228" s="4"/>
+      <c r="C228" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="D228" s="5"/>
+      <c r="E228" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F228" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G228" s="7"/>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" s="4"/>
+      <c r="B229" s="4"/>
+      <c r="C229" s="5"/>
+      <c r="D229" s="5"/>
+      <c r="E229" s="6"/>
+      <c r="F229" s="3"/>
+      <c r="G229" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="422">
-    <mergeCell ref="A208:B209"/>
-    <mergeCell ref="C208:D209"/>
-    <mergeCell ref="E208:E209"/>
-    <mergeCell ref="F208:G208"/>
-    <mergeCell ref="A210:B211"/>
-    <mergeCell ref="C210:D211"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="F210:G210"/>
-    <mergeCell ref="A204:B205"/>
-    <mergeCell ref="C204:D205"/>
-    <mergeCell ref="E204:E205"/>
-    <mergeCell ref="F204:G204"/>
-    <mergeCell ref="A206:B207"/>
-    <mergeCell ref="C206:D207"/>
-    <mergeCell ref="E206:E207"/>
-    <mergeCell ref="F206:G206"/>
-    <mergeCell ref="A200:B201"/>
-    <mergeCell ref="C200:D201"/>
-    <mergeCell ref="E200:E201"/>
-    <mergeCell ref="F200:G200"/>
-    <mergeCell ref="A202:B203"/>
-    <mergeCell ref="C202:D203"/>
-    <mergeCell ref="E202:E203"/>
-    <mergeCell ref="F202:G202"/>
-    <mergeCell ref="A196:B197"/>
-    <mergeCell ref="C196:D197"/>
-    <mergeCell ref="E196:E197"/>
-    <mergeCell ref="F196:G196"/>
-    <mergeCell ref="A198:B199"/>
-    <mergeCell ref="C198:D199"/>
-    <mergeCell ref="E198:E199"/>
-    <mergeCell ref="F198:G198"/>
-    <mergeCell ref="A192:B193"/>
-    <mergeCell ref="C192:D193"/>
-    <mergeCell ref="E192:E193"/>
-    <mergeCell ref="F192:G192"/>
-    <mergeCell ref="A194:B195"/>
-    <mergeCell ref="C194:D195"/>
-    <mergeCell ref="E194:E195"/>
-    <mergeCell ref="F194:G194"/>
-    <mergeCell ref="A188:B189"/>
-    <mergeCell ref="C188:D189"/>
-    <mergeCell ref="E188:E189"/>
-    <mergeCell ref="F188:G188"/>
-    <mergeCell ref="A190:B191"/>
-    <mergeCell ref="C190:D191"/>
-    <mergeCell ref="E190:E191"/>
-    <mergeCell ref="F190:G190"/>
-    <mergeCell ref="A184:B185"/>
-    <mergeCell ref="C184:D185"/>
-    <mergeCell ref="E184:E185"/>
-    <mergeCell ref="F184:G184"/>
-    <mergeCell ref="A186:B187"/>
-    <mergeCell ref="C186:D187"/>
-    <mergeCell ref="E186:E187"/>
-    <mergeCell ref="F186:G186"/>
-    <mergeCell ref="A180:B181"/>
-    <mergeCell ref="C180:D181"/>
-    <mergeCell ref="E180:E181"/>
-    <mergeCell ref="F180:G180"/>
-    <mergeCell ref="A182:B183"/>
-    <mergeCell ref="C182:D183"/>
-    <mergeCell ref="E182:E183"/>
-    <mergeCell ref="F182:G182"/>
-    <mergeCell ref="A176:B177"/>
-    <mergeCell ref="C176:D177"/>
-    <mergeCell ref="E176:E177"/>
-    <mergeCell ref="F176:G176"/>
-    <mergeCell ref="A178:B179"/>
-    <mergeCell ref="C178:D179"/>
-    <mergeCell ref="E178:E179"/>
-    <mergeCell ref="F178:G178"/>
-    <mergeCell ref="A172:B173"/>
-    <mergeCell ref="C172:D173"/>
-    <mergeCell ref="E172:E173"/>
-    <mergeCell ref="F172:G172"/>
-    <mergeCell ref="A174:B175"/>
-    <mergeCell ref="C174:D175"/>
-    <mergeCell ref="E174:E175"/>
-    <mergeCell ref="F174:G174"/>
-    <mergeCell ref="A168:B169"/>
-    <mergeCell ref="C168:D169"/>
-    <mergeCell ref="E168:E169"/>
-    <mergeCell ref="F168:G168"/>
-    <mergeCell ref="A170:B171"/>
-    <mergeCell ref="C170:D171"/>
-    <mergeCell ref="E170:E171"/>
-    <mergeCell ref="F170:G170"/>
-    <mergeCell ref="A164:B165"/>
-    <mergeCell ref="C164:D165"/>
-    <mergeCell ref="E164:E165"/>
-    <mergeCell ref="F164:G164"/>
-    <mergeCell ref="A166:B167"/>
-    <mergeCell ref="C166:D167"/>
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="F166:G166"/>
-    <mergeCell ref="A160:B161"/>
-    <mergeCell ref="C160:D161"/>
-    <mergeCell ref="E160:E161"/>
-    <mergeCell ref="F160:G160"/>
-    <mergeCell ref="A162:B163"/>
-    <mergeCell ref="C162:D163"/>
-    <mergeCell ref="E162:E163"/>
-    <mergeCell ref="F162:G162"/>
-    <mergeCell ref="A156:B157"/>
-    <mergeCell ref="C156:D157"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="F156:G156"/>
-    <mergeCell ref="A158:B159"/>
-    <mergeCell ref="C158:D159"/>
-    <mergeCell ref="E158:E159"/>
-    <mergeCell ref="F158:G158"/>
-    <mergeCell ref="A152:B153"/>
-    <mergeCell ref="C152:D153"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:G152"/>
-    <mergeCell ref="A154:B155"/>
-    <mergeCell ref="C154:D155"/>
-    <mergeCell ref="E154:E155"/>
-    <mergeCell ref="F154:G154"/>
-    <mergeCell ref="A148:B149"/>
-    <mergeCell ref="C148:D149"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="F148:G148"/>
-    <mergeCell ref="A150:B151"/>
-    <mergeCell ref="C150:D151"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="F150:G150"/>
-    <mergeCell ref="A144:B145"/>
-    <mergeCell ref="C144:D145"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="F144:G144"/>
-    <mergeCell ref="A146:B147"/>
-    <mergeCell ref="C146:D147"/>
-    <mergeCell ref="E146:E147"/>
-    <mergeCell ref="F146:G146"/>
-    <mergeCell ref="A140:B141"/>
-    <mergeCell ref="C140:D141"/>
-    <mergeCell ref="E140:E141"/>
-    <mergeCell ref="F140:G140"/>
-    <mergeCell ref="A142:B143"/>
-    <mergeCell ref="C142:D143"/>
-    <mergeCell ref="E142:E143"/>
-    <mergeCell ref="F142:G142"/>
-    <mergeCell ref="A136:B137"/>
-    <mergeCell ref="C136:D137"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="F136:G136"/>
-    <mergeCell ref="A138:B139"/>
-    <mergeCell ref="C138:D139"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="F138:G138"/>
-    <mergeCell ref="A132:B133"/>
-    <mergeCell ref="C132:D133"/>
-    <mergeCell ref="E132:E133"/>
-    <mergeCell ref="F132:G132"/>
-    <mergeCell ref="A134:B135"/>
-    <mergeCell ref="C134:D135"/>
-    <mergeCell ref="E134:E135"/>
-    <mergeCell ref="F134:G134"/>
-    <mergeCell ref="A128:B129"/>
-    <mergeCell ref="C128:D129"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="F128:G128"/>
-    <mergeCell ref="A130:B131"/>
-    <mergeCell ref="C130:D131"/>
-    <mergeCell ref="E130:E131"/>
-    <mergeCell ref="F130:G130"/>
-    <mergeCell ref="A124:B125"/>
-    <mergeCell ref="C124:D125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="F124:G124"/>
-    <mergeCell ref="A126:B127"/>
-    <mergeCell ref="C126:D127"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="F126:G126"/>
-    <mergeCell ref="A120:B121"/>
-    <mergeCell ref="C120:D121"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="F120:G120"/>
-    <mergeCell ref="A122:B123"/>
-    <mergeCell ref="C122:D123"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:G122"/>
-    <mergeCell ref="A116:B117"/>
-    <mergeCell ref="C116:D117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="A118:B119"/>
-    <mergeCell ref="C118:D119"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="A112:B113"/>
-    <mergeCell ref="C112:D113"/>
-    <mergeCell ref="E112:E113"/>
-    <mergeCell ref="F112:G112"/>
-    <mergeCell ref="A114:B115"/>
-    <mergeCell ref="C114:D115"/>
-    <mergeCell ref="E114:E115"/>
-    <mergeCell ref="F114:G114"/>
-    <mergeCell ref="A108:B109"/>
-    <mergeCell ref="C108:D109"/>
-    <mergeCell ref="E108:E109"/>
-    <mergeCell ref="F108:G108"/>
-    <mergeCell ref="A110:B111"/>
-    <mergeCell ref="C110:D111"/>
-    <mergeCell ref="E110:E111"/>
-    <mergeCell ref="F110:G110"/>
-    <mergeCell ref="A104:B105"/>
-    <mergeCell ref="C104:D105"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="A106:B107"/>
-    <mergeCell ref="C106:D107"/>
-    <mergeCell ref="E106:E107"/>
-    <mergeCell ref="F106:G106"/>
-    <mergeCell ref="A100:B101"/>
-    <mergeCell ref="C100:D101"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="A102:B103"/>
-    <mergeCell ref="C102:D103"/>
-    <mergeCell ref="E102:E103"/>
-    <mergeCell ref="F102:G102"/>
-    <mergeCell ref="A96:B97"/>
-    <mergeCell ref="C96:D97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="A98:B99"/>
-    <mergeCell ref="C98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="A92:B93"/>
-    <mergeCell ref="C92:D93"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="A94:B95"/>
-    <mergeCell ref="C94:D95"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="A88:B89"/>
-    <mergeCell ref="C88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="A90:B91"/>
-    <mergeCell ref="C90:D91"/>
-    <mergeCell ref="E90:E91"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="A84:B85"/>
-    <mergeCell ref="C84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="A86:B87"/>
-    <mergeCell ref="C86:D87"/>
-    <mergeCell ref="E86:E87"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="A80:B81"/>
-    <mergeCell ref="C80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="A82:B83"/>
-    <mergeCell ref="C82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="A76:B77"/>
-    <mergeCell ref="C76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="A78:B79"/>
-    <mergeCell ref="C78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="A72:B73"/>
-    <mergeCell ref="C72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="A74:B75"/>
-    <mergeCell ref="C74:D75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="A68:B69"/>
-    <mergeCell ref="C68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="A70:B71"/>
-    <mergeCell ref="C70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="A64:B65"/>
-    <mergeCell ref="C64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="A66:B67"/>
-    <mergeCell ref="C66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="A60:B61"/>
-    <mergeCell ref="C60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="A62:B63"/>
-    <mergeCell ref="C62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="A56:B57"/>
-    <mergeCell ref="C56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="A58:B59"/>
-    <mergeCell ref="C58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="A52:B53"/>
-    <mergeCell ref="C52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="A54:B55"/>
-    <mergeCell ref="C54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:G54"/>
+  <mergeCells count="458">
+    <mergeCell ref="A224:B225"/>
+    <mergeCell ref="C224:D225"/>
+    <mergeCell ref="E224:E225"/>
+    <mergeCell ref="F224:G224"/>
+    <mergeCell ref="A226:B227"/>
+    <mergeCell ref="C226:D227"/>
+    <mergeCell ref="E226:E227"/>
+    <mergeCell ref="F226:G226"/>
+    <mergeCell ref="A228:B229"/>
+    <mergeCell ref="C228:D229"/>
+    <mergeCell ref="E228:E229"/>
+    <mergeCell ref="F228:G228"/>
+    <mergeCell ref="A218:B219"/>
+    <mergeCell ref="C218:D219"/>
+    <mergeCell ref="E218:E219"/>
+    <mergeCell ref="F218:G218"/>
+    <mergeCell ref="A220:B221"/>
+    <mergeCell ref="C220:D221"/>
+    <mergeCell ref="E220:E221"/>
+    <mergeCell ref="F220:G220"/>
+    <mergeCell ref="A222:B223"/>
+    <mergeCell ref="C222:D223"/>
+    <mergeCell ref="E222:E223"/>
+    <mergeCell ref="F222:G222"/>
+    <mergeCell ref="A212:B213"/>
+    <mergeCell ref="C212:D213"/>
+    <mergeCell ref="E212:E213"/>
+    <mergeCell ref="F212:G212"/>
+    <mergeCell ref="A214:B215"/>
+    <mergeCell ref="C214:D215"/>
+    <mergeCell ref="E214:E215"/>
+    <mergeCell ref="F214:G214"/>
+    <mergeCell ref="A216:B217"/>
+    <mergeCell ref="C216:D217"/>
+    <mergeCell ref="E216:E217"/>
+    <mergeCell ref="F216:G216"/>
+    <mergeCell ref="A38:B39"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A40:B41"/>
+    <mergeCell ref="C40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="C46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="A42:B43"/>
+    <mergeCell ref="C42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="A44:B45"/>
+    <mergeCell ref="C44:D45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="A32:B33"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A34:B35"/>
+    <mergeCell ref="C34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="A36:B37"/>
+    <mergeCell ref="C36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="A28:B29"/>
+    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="A30:B31"/>
+    <mergeCell ref="C30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:G12"/>
     <mergeCell ref="E48:E49"/>
     <mergeCell ref="F48:G48"/>
     <mergeCell ref="A50:B51"/>
@@ -4296,84 +4378,326 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="A8:B9"/>
     <mergeCell ref="C8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="C26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="A28:B29"/>
-    <mergeCell ref="C28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="A30:B31"/>
-    <mergeCell ref="C30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="A32:B33"/>
-    <mergeCell ref="C32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A34:B35"/>
-    <mergeCell ref="C34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="A36:B37"/>
-    <mergeCell ref="C36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="A38:B39"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="A40:B41"/>
-    <mergeCell ref="C40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="A46:B47"/>
-    <mergeCell ref="C46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="A42:B43"/>
-    <mergeCell ref="C42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="A44:B45"/>
-    <mergeCell ref="C44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="A56:B57"/>
+    <mergeCell ref="C56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="A58:B59"/>
+    <mergeCell ref="C58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="C52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="C54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="A64:B65"/>
+    <mergeCell ref="C64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="A66:B67"/>
+    <mergeCell ref="C66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="A60:B61"/>
+    <mergeCell ref="C60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="A62:B63"/>
+    <mergeCell ref="C62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="A72:B73"/>
+    <mergeCell ref="C72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="A74:B75"/>
+    <mergeCell ref="C74:D75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="A68:B69"/>
+    <mergeCell ref="C68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="A70:B71"/>
+    <mergeCell ref="C70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="A80:B81"/>
+    <mergeCell ref="C80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="A82:B83"/>
+    <mergeCell ref="C82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="A76:B77"/>
+    <mergeCell ref="C76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="A78:B79"/>
+    <mergeCell ref="C78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="A88:B89"/>
+    <mergeCell ref="C88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="A90:B91"/>
+    <mergeCell ref="C90:D91"/>
+    <mergeCell ref="E90:E91"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="A84:B85"/>
+    <mergeCell ref="C84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="A86:B87"/>
+    <mergeCell ref="C86:D87"/>
+    <mergeCell ref="E86:E87"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="A96:B97"/>
+    <mergeCell ref="C96:D97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="A98:B99"/>
+    <mergeCell ref="C98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="A92:B93"/>
+    <mergeCell ref="C92:D93"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="A94:B95"/>
+    <mergeCell ref="C94:D95"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="A104:B105"/>
+    <mergeCell ref="C104:D105"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="A106:B107"/>
+    <mergeCell ref="C106:D107"/>
+    <mergeCell ref="E106:E107"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="A100:B101"/>
+    <mergeCell ref="C100:D101"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="A102:B103"/>
+    <mergeCell ref="C102:D103"/>
+    <mergeCell ref="E102:E103"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="A112:B113"/>
+    <mergeCell ref="C112:D113"/>
+    <mergeCell ref="E112:E113"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="A114:B115"/>
+    <mergeCell ref="C114:D115"/>
+    <mergeCell ref="E114:E115"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="A108:B109"/>
+    <mergeCell ref="C108:D109"/>
+    <mergeCell ref="E108:E109"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="A110:B111"/>
+    <mergeCell ref="C110:D111"/>
+    <mergeCell ref="E110:E111"/>
+    <mergeCell ref="F110:G110"/>
+    <mergeCell ref="A120:B121"/>
+    <mergeCell ref="C120:D121"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="F120:G120"/>
+    <mergeCell ref="A122:B123"/>
+    <mergeCell ref="C122:D123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:G122"/>
+    <mergeCell ref="A116:B117"/>
+    <mergeCell ref="C116:D117"/>
+    <mergeCell ref="E116:E117"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="A118:B119"/>
+    <mergeCell ref="C118:D119"/>
+    <mergeCell ref="E118:E119"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="A128:B129"/>
+    <mergeCell ref="C128:D129"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="F128:G128"/>
+    <mergeCell ref="A130:B131"/>
+    <mergeCell ref="C130:D131"/>
+    <mergeCell ref="E130:E131"/>
+    <mergeCell ref="F130:G130"/>
+    <mergeCell ref="A124:B125"/>
+    <mergeCell ref="C124:D125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="F124:G124"/>
+    <mergeCell ref="A126:B127"/>
+    <mergeCell ref="C126:D127"/>
+    <mergeCell ref="E126:E127"/>
+    <mergeCell ref="F126:G126"/>
+    <mergeCell ref="A136:B137"/>
+    <mergeCell ref="C136:D137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="F136:G136"/>
+    <mergeCell ref="A138:B139"/>
+    <mergeCell ref="C138:D139"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="F138:G138"/>
+    <mergeCell ref="A132:B133"/>
+    <mergeCell ref="C132:D133"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="F132:G132"/>
+    <mergeCell ref="A134:B135"/>
+    <mergeCell ref="C134:D135"/>
+    <mergeCell ref="E134:E135"/>
+    <mergeCell ref="F134:G134"/>
+    <mergeCell ref="A144:B145"/>
+    <mergeCell ref="C144:D145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="F144:G144"/>
+    <mergeCell ref="A146:B147"/>
+    <mergeCell ref="C146:D147"/>
+    <mergeCell ref="E146:E147"/>
+    <mergeCell ref="F146:G146"/>
+    <mergeCell ref="A140:B141"/>
+    <mergeCell ref="C140:D141"/>
+    <mergeCell ref="E140:E141"/>
+    <mergeCell ref="F140:G140"/>
+    <mergeCell ref="A142:B143"/>
+    <mergeCell ref="C142:D143"/>
+    <mergeCell ref="E142:E143"/>
+    <mergeCell ref="F142:G142"/>
+    <mergeCell ref="A152:B153"/>
+    <mergeCell ref="C152:D153"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:G152"/>
+    <mergeCell ref="A154:B155"/>
+    <mergeCell ref="C154:D155"/>
+    <mergeCell ref="E154:E155"/>
+    <mergeCell ref="F154:G154"/>
+    <mergeCell ref="A148:B149"/>
+    <mergeCell ref="C148:D149"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="F148:G148"/>
+    <mergeCell ref="A150:B151"/>
+    <mergeCell ref="C150:D151"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="F150:G150"/>
+    <mergeCell ref="A160:B161"/>
+    <mergeCell ref="C160:D161"/>
+    <mergeCell ref="E160:E161"/>
+    <mergeCell ref="F160:G160"/>
+    <mergeCell ref="A162:B163"/>
+    <mergeCell ref="C162:D163"/>
+    <mergeCell ref="E162:E163"/>
+    <mergeCell ref="F162:G162"/>
+    <mergeCell ref="A156:B157"/>
+    <mergeCell ref="C156:D157"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="A158:B159"/>
+    <mergeCell ref="C158:D159"/>
+    <mergeCell ref="E158:E159"/>
+    <mergeCell ref="F158:G158"/>
+    <mergeCell ref="A168:B169"/>
+    <mergeCell ref="C168:D169"/>
+    <mergeCell ref="E168:E169"/>
+    <mergeCell ref="F168:G168"/>
+    <mergeCell ref="A170:B171"/>
+    <mergeCell ref="C170:D171"/>
+    <mergeCell ref="E170:E171"/>
+    <mergeCell ref="F170:G170"/>
+    <mergeCell ref="A164:B165"/>
+    <mergeCell ref="C164:D165"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="F164:G164"/>
+    <mergeCell ref="A166:B167"/>
+    <mergeCell ref="C166:D167"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="F166:G166"/>
+    <mergeCell ref="A176:B177"/>
+    <mergeCell ref="C176:D177"/>
+    <mergeCell ref="E176:E177"/>
+    <mergeCell ref="F176:G176"/>
+    <mergeCell ref="A178:B179"/>
+    <mergeCell ref="C178:D179"/>
+    <mergeCell ref="E178:E179"/>
+    <mergeCell ref="F178:G178"/>
+    <mergeCell ref="A172:B173"/>
+    <mergeCell ref="C172:D173"/>
+    <mergeCell ref="E172:E173"/>
+    <mergeCell ref="F172:G172"/>
+    <mergeCell ref="A174:B175"/>
+    <mergeCell ref="C174:D175"/>
+    <mergeCell ref="E174:E175"/>
+    <mergeCell ref="F174:G174"/>
+    <mergeCell ref="A184:B185"/>
+    <mergeCell ref="C184:D185"/>
+    <mergeCell ref="E184:E185"/>
+    <mergeCell ref="F184:G184"/>
+    <mergeCell ref="A186:B187"/>
+    <mergeCell ref="C186:D187"/>
+    <mergeCell ref="E186:E187"/>
+    <mergeCell ref="F186:G186"/>
+    <mergeCell ref="A180:B181"/>
+    <mergeCell ref="C180:D181"/>
+    <mergeCell ref="E180:E181"/>
+    <mergeCell ref="F180:G180"/>
+    <mergeCell ref="A182:B183"/>
+    <mergeCell ref="C182:D183"/>
+    <mergeCell ref="E182:E183"/>
+    <mergeCell ref="F182:G182"/>
+    <mergeCell ref="A192:B193"/>
+    <mergeCell ref="C192:D193"/>
+    <mergeCell ref="E192:E193"/>
+    <mergeCell ref="F192:G192"/>
+    <mergeCell ref="A194:B195"/>
+    <mergeCell ref="C194:D195"/>
+    <mergeCell ref="E194:E195"/>
+    <mergeCell ref="F194:G194"/>
+    <mergeCell ref="A188:B189"/>
+    <mergeCell ref="C188:D189"/>
+    <mergeCell ref="E188:E189"/>
+    <mergeCell ref="F188:G188"/>
+    <mergeCell ref="A190:B191"/>
+    <mergeCell ref="C190:D191"/>
+    <mergeCell ref="E190:E191"/>
+    <mergeCell ref="F190:G190"/>
+    <mergeCell ref="A200:B201"/>
+    <mergeCell ref="C200:D201"/>
+    <mergeCell ref="E200:E201"/>
+    <mergeCell ref="F200:G200"/>
+    <mergeCell ref="A202:B203"/>
+    <mergeCell ref="C202:D203"/>
+    <mergeCell ref="E202:E203"/>
+    <mergeCell ref="F202:G202"/>
+    <mergeCell ref="A196:B197"/>
+    <mergeCell ref="C196:D197"/>
+    <mergeCell ref="E196:E197"/>
+    <mergeCell ref="F196:G196"/>
+    <mergeCell ref="A198:B199"/>
+    <mergeCell ref="C198:D199"/>
+    <mergeCell ref="E198:E199"/>
+    <mergeCell ref="F198:G198"/>
+    <mergeCell ref="A208:B209"/>
+    <mergeCell ref="C208:D209"/>
+    <mergeCell ref="E208:E209"/>
+    <mergeCell ref="F208:G208"/>
+    <mergeCell ref="A210:B211"/>
+    <mergeCell ref="C210:D211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="F210:G210"/>
+    <mergeCell ref="A204:B205"/>
+    <mergeCell ref="C204:D205"/>
+    <mergeCell ref="E204:E205"/>
+    <mergeCell ref="F204:G204"/>
+    <mergeCell ref="A206:B207"/>
+    <mergeCell ref="C206:D207"/>
+    <mergeCell ref="E206:E207"/>
+    <mergeCell ref="F206:G206"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
